--- a/Planning/weekly_logbook.xlsx
+++ b/Planning/weekly_logbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin\Documents\CNU\spring2021\capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin\Documents\CNU\capstone\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07698C7C-CDB6-43E3-BD93-362C27D5B927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971CA9EB-F031-442C-948C-53341313393A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20672AE7-D122-4178-91EE-84C1C90C128A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="156" xr2:uid="{20672AE7-D122-4178-91EE-84C1C90C128A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,22 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
-  <si>
-    <t>Researching Frameworks</t>
-  </si>
-  <si>
-    <t>Databse Building</t>
-  </si>
-  <si>
-    <t>Additional Research</t>
-  </si>
-  <si>
-    <t>Database Set Up</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>Debugging</t>
   </si>
@@ -57,9 +42,6 @@
     <t>Connect front end to database</t>
   </si>
   <si>
-    <t>Set Up Log In Page</t>
-  </si>
-  <si>
     <t>Create roles with varying levels of access</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t xml:space="preserve">Planning </t>
   </si>
   <si>
-    <t>time spent</t>
-  </si>
-  <si>
     <t>What progress did you make last week?</t>
   </si>
   <si>
@@ -148,13 +127,187 @@
   </si>
   <si>
     <t>Weekly Logbook - CNU Rowing Club Web Application</t>
+  </si>
+  <si>
+    <t>This week I have worked on planning and sketching my web application as well as wireframing. I began setting up my development environment. I also began researching and planning for my database based on the user interactions and functionality I have outlined for my application. I have decided what framework I am using for the front end. I plan to use vue.js and have begun experimenting with it. Admittedly, I have not gotten as much done this week as I had hoped.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time spent</t>
+  </si>
+  <si>
+    <t>Hopefully going forward I can get a little more done this week and get on track to where I want to be. I expect to begin building the database and spend around 4 hours on this. I plan to spend at least 3 more hours researching and beginning to learn frameworks. My development environment is not fully set up, and I expect it will take me another hour or so to get that where I want it.</t>
+  </si>
+  <si>
+    <t>I believe I stated that I would potentially be using React as my front end framework. This has now changed to vue.js.</t>
+  </si>
+  <si>
+    <t>44:04, 31:45</t>
+  </si>
+  <si>
+    <t>10:44am-11:28am, 11:44am-12:16pm</t>
+  </si>
+  <si>
+    <t>1 hr, 15 min</t>
+  </si>
+  <si>
+    <t>6:09pm-6:56pm, 8:22pm-9:17pm</t>
+  </si>
+  <si>
+    <t>47:43, 55:02</t>
+  </si>
+  <si>
+    <t>1 hr, 42 min</t>
+  </si>
+  <si>
+    <t>Planning/Research (DB, wireframing)</t>
+  </si>
+  <si>
+    <t>11:01am-12:05pm, 1:58pm-2:22pm</t>
+  </si>
+  <si>
+    <t>1:05:53, 24:04</t>
+  </si>
+  <si>
+    <t>1 hr, 30 min</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Planning - Wireframing, Researching Framework</t>
+  </si>
+  <si>
+    <t>Setting up Development Environment</t>
+  </si>
+  <si>
+    <t>12:06pm-12:24pm, 3:23pm-3:53pm, 9:09pm-9:14pm</t>
+  </si>
+  <si>
+    <t>17:59, 30:04,    4:59</t>
+  </si>
+  <si>
+    <t>53 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This week I have worked on database design and implementation using AWS Amplify data modeling. I met with Dr. Almalag to discuss my database design. I finished configuring my development environment, but I may have to make minor adjustments to it as I add more to the project. I spent about 2 hours learning vue.js in tutorials as well as refreshing myself on JavaScript. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the upcoming week, I expect to spend 2 hours beginning to set up a log in page. I’m having an issue with my front end showing up at the AWS web page, so I would like to get that fixed. Hopefully it will take less than an hour. I also plan to spend one or two hours making sure the database can interact with the front end. I expect to spend one hour designating what privileges different levels of users have. The users have a tag in the database (status) that will tell the application what actions they have access to. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have at this point decided not to allow users to set availability. Most of the events the rowing club has are practice, and there is no need for users to mark availability for these. (Practice is at 5:00am, everyone is available.) Users will still be able to view events. E-board members will still take attendance at events/practices. </t>
+  </si>
+  <si>
+    <t>Debugging (fixing Git Issue)</t>
+  </si>
+  <si>
+    <t>9:40pm-9:54pm</t>
+  </si>
+  <si>
+    <t>14 min</t>
+  </si>
+  <si>
+    <t>9:54pm-10:15pm</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>10:22pm-10:34pm</t>
+  </si>
+  <si>
+    <t>12 min</t>
+  </si>
+  <si>
+    <t>Database Planning</t>
+  </si>
+  <si>
+    <t>Database Design (ER Diagram, meeting)</t>
+  </si>
+  <si>
+    <t>17-Feb,    18-Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:20pm-9:28pm, 2:00pm-2:42pm </t>
+  </si>
+  <si>
+    <t>18:00, 42:00</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>Database (ER Diagram, implementation)</t>
+  </si>
+  <si>
+    <t>5:47pm-5:57pm, 5:57pm-6:14pm</t>
+  </si>
+  <si>
+    <t>9:40, 16:39</t>
+  </si>
+  <si>
+    <t>26 min</t>
+  </si>
+  <si>
+    <t>Front End (Vue.js tutorial)</t>
+  </si>
+  <si>
+    <t>6:14pm-6:53pm</t>
+  </si>
+  <si>
+    <t>39 min</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>11:20am-11:35am</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>3:29pm-4:49pm</t>
+  </si>
+  <si>
+    <t>9:57pm-10:16pm</t>
+  </si>
+  <si>
+    <t>1 hr, 11 min</t>
+  </si>
+  <si>
+    <t>19 min</t>
+  </si>
+  <si>
+    <t>3:26pm-4:21pm</t>
+  </si>
+  <si>
+    <t>55 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Up Log In Page </t>
+  </si>
+  <si>
+    <t>12:59pm-1:38pm, 6:25pm-7:07pm, 7:28pm-7:59pm</t>
+  </si>
+  <si>
+    <t>39:15, 42:05, 31:22</t>
+  </si>
+  <si>
+    <t>1 hr, 52 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +355,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -217,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -311,11 +470,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -346,6 +533,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,45 +900,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C939A91-2C7C-4C2B-8537-5E3FAA0835DF}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="44.44140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="50.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
       <c r="F2" s="18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -709,325 +961,487 @@
       <c r="H3" s="11"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
+    <row r="4" spans="1:9" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="27">
+        <v>44238</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="27">
+        <v>44241</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="27">
+        <v>44243</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="27">
+        <v>44243</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="F10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="35">
+        <v>44243</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="35">
+        <v>44243</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="35">
+        <v>44243</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="37">
+        <v>44248</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="42">
+        <v>44248</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="44">
+        <v>1.6208333333333333</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="42">
+        <v>44249</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="42">
+        <v>44250</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="44">
+        <v>4.9421296296296297E-2</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="40">
+        <v>44250</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="41">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="48"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="47">
+        <v>2.2965277777777779</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="35">
+        <v>44255</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B26" s="14"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B28" s="4"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="B29" s="3"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B32" s="3"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B33" s="3"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B34" s="14"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="22"/>
+      <c r="B36" s="3"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B37" s="3"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B38" s="14"/>
       <c r="F38" s="21"/>
@@ -1037,7 +1451,7 @@
     </row>
     <row r="39" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1050,21 +1464,118 @@
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B40" s="3"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="3"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="22"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning/weekly_logbook.xlsx
+++ b/Planning/weekly_logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin\Documents\CNU\capstone\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971CA9EB-F031-442C-948C-53341313393A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4676DFAC-9C62-4709-B738-A3601EA5F522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="156" xr2:uid="{20672AE7-D122-4178-91EE-84C1C90C128A}"/>
   </bookViews>
@@ -34,32 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
   <si>
     <t>Debugging</t>
   </si>
   <si>
-    <t>Connect front end to database</t>
-  </si>
-  <si>
-    <t>Create roles with varying levels of access</t>
-  </si>
-  <si>
-    <t>Refine Login Page</t>
-  </si>
-  <si>
-    <t>Set up home page/ menu to access other features</t>
-  </si>
-  <si>
-    <t>Set up Scheduling page</t>
-  </si>
-  <si>
-    <t>Set up scheduling functionality</t>
-  </si>
-  <si>
-    <t>Debgging</t>
-  </si>
-  <si>
     <t>Set up Roster Front End</t>
   </si>
   <si>
@@ -291,9 +270,6 @@
     <t>55 min</t>
   </si>
   <si>
-    <t xml:space="preserve">Set Up Log In Page </t>
-  </si>
-  <si>
     <t>12:59pm-1:38pm, 6:25pm-7:07pm, 7:28pm-7:59pm</t>
   </si>
   <si>
@@ -301,6 +277,162 @@
   </si>
   <si>
     <t>1 hr, 52 min</t>
+  </si>
+  <si>
+    <t>Set Up Log In Page (Research/Tutorials)</t>
+  </si>
+  <si>
+    <t>More Login Page Research</t>
+  </si>
+  <si>
+    <t>12:10pm-12:26pm</t>
+  </si>
+  <si>
+    <t>Updating Logbook</t>
+  </si>
+  <si>
+    <t>12:22pm-1:00pm, 2:49pm-2:56pm</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>8,9-Mar</t>
+  </si>
+  <si>
+    <t>6:21pm-7:10pm, 9:48am-10:01am</t>
+  </si>
+  <si>
+    <t>48:00, 6:30</t>
+  </si>
+  <si>
+    <t>49:40, 12:38</t>
+  </si>
+  <si>
+    <t>Creating home page</t>
+  </si>
+  <si>
+    <t>7:35pm-8:14pm</t>
+  </si>
+  <si>
+    <t>40 min</t>
+  </si>
+  <si>
+    <t>Connecting front end to database (Research)</t>
+  </si>
+  <si>
+    <t>10:04am-10:24am, 10:43am-11:32am</t>
+  </si>
+  <si>
+    <t>19:57, 48:52</t>
+  </si>
+  <si>
+    <t>1 hr, 10 min</t>
+  </si>
+  <si>
+    <t>Fixing AWS display issue</t>
+  </si>
+  <si>
+    <t>12:15pm-12:27pm, 1:51pm-2:30pm</t>
+  </si>
+  <si>
+    <t>12:28, 38:52</t>
+  </si>
+  <si>
+    <t>Setting up home page</t>
+  </si>
+  <si>
+    <t>3:19pm-3:48pm</t>
+  </si>
+  <si>
+    <t>29 min</t>
+  </si>
+  <si>
+    <t>5:05pm-5:20pm</t>
+  </si>
+  <si>
+    <t>5:21pm-5:50pm</t>
+  </si>
+  <si>
+    <t>11:45am-11:56am</t>
+  </si>
+  <si>
+    <t>11 min</t>
+  </si>
+  <si>
+    <t>Attempting to get vue.js working on AWS display</t>
+  </si>
+  <si>
+    <t>9:42am-10:31am</t>
+  </si>
+  <si>
+    <t>50 min</t>
+  </si>
+  <si>
+    <t>Login Page (research/experimentation)</t>
+  </si>
+  <si>
+    <t>10:31am-10:55am</t>
+  </si>
+  <si>
+    <t>24 min</t>
+  </si>
+  <si>
+    <t>1:08pm-1:56pm, 2:17pm-2:42pm, 3:10pm-3:46pm</t>
+  </si>
+  <si>
+    <t>48, 24, 35</t>
+  </si>
+  <si>
+    <t>1 hr, 40 min</t>
+  </si>
+  <si>
+    <t>Home page + button functionality</t>
+  </si>
+  <si>
+    <t>Login page experimentation</t>
+  </si>
+  <si>
+    <t>9:58am-10:21am</t>
+  </si>
+  <si>
+    <t>23 min</t>
+  </si>
+  <si>
+    <t>11:41am-12:37pm, 1:04pm-2:04pm, 2:11pm-2:14pm, 4:08pm-4:27pm</t>
+  </si>
+  <si>
+    <t>56, 60, 3, 19</t>
+  </si>
+  <si>
+    <t>2 hr, 10 min</t>
+  </si>
+  <si>
+    <t>connecting front end to database             (trying to get php to work)</t>
+  </si>
+  <si>
+    <t>Resetting up Virtual Machine/           Development Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This week I have continued learning Vue.js. I have also started watching and reading tutorials and playing around to create a login page. I have spent some time working on fixing my AWS Amplify web page display issue to no avail. Additionally, I somehow broke my virtual machine (more specifically, I tried to give it more memory and now it won’t boot), so I am in the process of reconfiguring that whole situation. </t>
+  </si>
+  <si>
+    <t>In the upcoming week, I expect to finish the login page set up. The login page is already taking me longer than expected, so I will probably spend at least two more hours on it. I need to basically reset up my entire virtual machine/development environment, because I broke it. That will probably take about an hour or less. Additionally, I truly need to fix this AWS Amplify issue, which I expect to take around an hour. Last week I said I would work on the database front end interaction for about an hour or two. I did not get to that last week, so I need to work on it this week. I also need to work on the user privilege for an hour, which I also did not get to last week. If I can, I would also like to spend an hour or two to start setting up the home page.</t>
+  </si>
+  <si>
+    <t>I do not have any changes this week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This past week, I set up a new virtual machine to replace the old one I broke. This included redownloading everything for developing my web application. Additionally, I began building a home page for my web application. I also created a separate page for the schedule that basically has nothing in it yet. I spent some time trying to figure out how to get my front end set up to pull information from the back end database. This process included reaching and experimenting. Lastly, this week, I attempted to fix my AWS Amplify issue. Somehow I still have not figured it out, although I feel I am closer to a solution. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the upcoming week, I expect to put some time into the login page. Most of the time I already spent on the login page was viewing tutorials and not making a whole lot of real progress, so I definitely need to spend more time on this, probably at least 2 hours. I still need to fix this AWS Amplify issue. Honestly no idea how long this is going to take, but I anticipate banging my head against this wall for another hour at least. (Alternatively, I’m considering exploring more well known AWS options.) I spent some time working toward connecting the front end to the database, and this upcoming week I expect to spend another hour or two on this. Lastly, I intend to spend at least an hour refining the home page and an hour putting together the schedule page. </t>
+  </si>
+  <si>
+    <t>10:07pm-10:42pm</t>
+  </si>
+  <si>
+    <t>35 min</t>
   </si>
 </sst>
 </file>
@@ -376,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -498,18 +630,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -586,6 +726,32 @@
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C939A91-2C7C-4C2B-8537-5E3FAA0835DF}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,669 +1079,925 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="50.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="50.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="26">
+        <v>44238</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="26">
+        <v>44241</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="27">
-        <v>44238</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="26">
+        <v>44243</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="27">
-        <v>44241</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="27">
-        <v>44243</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="27">
+        <v>42</v>
+      </c>
+      <c r="B8" s="26">
         <v>44243</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="22"/>
+      <c r="C8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="34">
+        <v>44243</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="34">
+        <v>44243</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="34">
+        <v>44243</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="D13" s="35">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="35">
-        <v>44243</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="36">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="35">
-        <v>44243</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="36">
-        <v>0.86041666666666661</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D14" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="36">
+        <v>44248</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="35">
-        <v>44243</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="36">
-        <v>0.51527777777777783</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="D15" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="B16" s="41">
+        <v>44248</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D16" s="43">
+        <v>1.6208333333333333</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="37">
-        <v>44248</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="B17" s="41">
+        <v>44249</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D17" s="43">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="41">
+        <v>44250</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="D18" s="43">
+        <v>4.9421296296296297E-2</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="39">
+        <v>44250</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="42">
-        <v>44248</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="44">
-        <v>1.6208333333333333</v>
-      </c>
-      <c r="E16" s="33" t="s">
+      <c r="D19" s="40">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" s="31" customFormat="1" ht="265.8" x14ac:dyDescent="0.35">
+      <c r="A21" s="47"/>
+      <c r="F21" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="41">
+        <v>44253</v>
+      </c>
+      <c r="C22" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="42">
-        <v>44249</v>
-      </c>
-      <c r="C17" s="43" t="s">
+      <c r="D22" s="46">
+        <v>2.2965277777777779</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="44">
-        <v>0.61388888888888882</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="42">
-        <v>44250</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="44">
-        <v>4.9421296296296297E-2</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="40">
-        <v>44250</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="41">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="48"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="42">
-        <v>44253</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="47">
-        <v>2.2965277777777779</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="35">
+        <v>81</v>
+      </c>
+      <c r="B23" s="34">
         <v>44255</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="5"/>
+      <c r="C23" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="B24" s="48">
+        <v>44257</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="I28" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="B25" s="48">
+        <v>44256</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" s="31" customFormat="1" ht="250.2" x14ac:dyDescent="0.35">
+      <c r="A27" s="47"/>
+      <c r="F27" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="22"/>
+        <v>91</v>
+      </c>
+      <c r="B29" s="49">
+        <v>44263</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="46">
+        <v>1.6187500000000001</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="49">
+        <v>44264</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="49">
+        <v>44264</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="22"/>
+        <v>101</v>
+      </c>
+      <c r="B32" s="48">
+        <v>44264</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="47"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="49">
+        <v>44265</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="I36" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="B36" s="49">
+        <v>44265</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36">
+        <v>29</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="22"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="B37" s="49">
+        <v>44267</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="49">
+        <v>44268</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38">
+        <v>49</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="49">
+        <v>44268</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="B40" s="49">
+        <v>44268</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="34">
+        <v>44269</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41">
         <v>23</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="22"/>
+      <c r="E41" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="55">
+        <v>44269</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="55">
+        <v>44269</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="31">
+        <v>35</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:9" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="56"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="38"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" s="15" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="22"/>
+      <c r="B48" s="13"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B50" s="3"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="13"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="21"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="21"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning/weekly_logbook.xlsx
+++ b/Planning/weekly_logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin\Documents\CNU\capstone\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4676DFAC-9C62-4709-B738-A3601EA5F522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE83AA08-53C1-48B1-940C-431F920D7A2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="156" xr2:uid="{20672AE7-D122-4178-91EE-84C1C90C128A}"/>
   </bookViews>
@@ -34,34 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
-  <si>
-    <t>Debugging</t>
-  </si>
-  <si>
-    <t>Set up Roster Front End</t>
-  </si>
-  <si>
-    <t>Set up Roster functionality</t>
-  </si>
-  <si>
-    <t>Set up Attendence page</t>
-  </si>
-  <si>
-    <t>Configure attendence functionality</t>
-  </si>
-  <si>
-    <t>Finish configuring application functionality</t>
-  </si>
-  <si>
-    <t>UI Improvement</t>
-  </si>
-  <si>
-    <t>Testing/ fine tuning</t>
-  </si>
-  <si>
-    <t>Creating Final Presentation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="245">
   <si>
     <t>Week 1</t>
   </si>
@@ -433,6 +406,369 @@
   </si>
   <si>
     <t>35 min</t>
+  </si>
+  <si>
+    <t>Intermediate Presentation 1</t>
+  </si>
+  <si>
+    <t>10:41pm-11:13pm</t>
+  </si>
+  <si>
+    <t>45 minutes</t>
+  </si>
+  <si>
+    <t>Working on PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:43pm-2:34pm, 5:52pm-6:14pm </t>
+  </si>
+  <si>
+    <t>50, 21</t>
+  </si>
+  <si>
+    <t>Setting up bootstrap css</t>
+  </si>
+  <si>
+    <t>7:34pm-8:20pm</t>
+  </si>
+  <si>
+    <t>work on login page</t>
+  </si>
+  <si>
+    <t>8:20pm-8:36pm</t>
+  </si>
+  <si>
+    <t>16 minutes</t>
+  </si>
+  <si>
+    <t>working on PHP</t>
+  </si>
+  <si>
+    <t>11:45am-11:56am, 12:23pm-12:25pm, 5:04pm-5:25pm</t>
+  </si>
+  <si>
+    <t>11,2,20</t>
+  </si>
+  <si>
+    <t>working on PHP/setting Web Server</t>
+  </si>
+  <si>
+    <t>7:11pm-7:17pm</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>35 minutes</t>
+  </si>
+  <si>
+    <t>working on database</t>
+  </si>
+  <si>
+    <t>12:42pm-1:08pm, 1:20pm-1:29pm</t>
+  </si>
+  <si>
+    <t>25, 9</t>
+  </si>
+  <si>
+    <t>34 minutes</t>
+  </si>
+  <si>
+    <t>working on webserver</t>
+  </si>
+  <si>
+    <t>11:40am-11:44am, 12:31pm-12:42pm, 1:29pm-2:02pm, 3:20pm-3:39pm, 6:36pm-6:50pm</t>
+  </si>
+  <si>
+    <t>4, 11, 33, 20, 14</t>
+  </si>
+  <si>
+    <t>1 hr, 21 min</t>
+  </si>
+  <si>
+    <t>Schedule Page</t>
+  </si>
+  <si>
+    <t>12:24pm-12:31pm, 3:39pm-5:47pm</t>
+  </si>
+  <si>
+    <t>6, 127</t>
+  </si>
+  <si>
+    <t>2 hr, 13 min</t>
+  </si>
+  <si>
+    <t>Working on webserver</t>
+  </si>
+  <si>
+    <t>4:21pm-4:49pm, 5:03pm-7:30pm</t>
+  </si>
+  <si>
+    <t>38, 146</t>
+  </si>
+  <si>
+    <t>3 hr, 5 min</t>
+  </si>
+  <si>
+    <t>roster page</t>
+  </si>
+  <si>
+    <t>2:59pm-3:18pm, 3:29pm-4:05pm, 4:14pm-4:22pm</t>
+  </si>
+  <si>
+    <t>19,36,7</t>
+  </si>
+  <si>
+    <t>1 hr, 57 min</t>
+  </si>
+  <si>
+    <t>attendance page</t>
+  </si>
+  <si>
+    <t>4:26pm-5:00pm, 5:01pm-5:06pm</t>
+  </si>
+  <si>
+    <t>34, 5</t>
+  </si>
+  <si>
+    <t>39 minutes</t>
+  </si>
+  <si>
+    <t>settings page</t>
+  </si>
+  <si>
+    <t>5:06pm-5:22pm, 6:42pm-7:21pm</t>
+  </si>
+  <si>
+    <t>16,28</t>
+  </si>
+  <si>
+    <t>7:12pm-8:48pm</t>
+  </si>
+  <si>
+    <t>1 hr, 36 min</t>
+  </si>
+  <si>
+    <t>Intermediate Presentation 2</t>
+  </si>
+  <si>
+    <t>4:17pm-4:22pm, 4:38pm-5:18pm</t>
+  </si>
+  <si>
+    <t>5,39</t>
+  </si>
+  <si>
+    <t>44 minutes</t>
+  </si>
+  <si>
+    <t>schedule page</t>
+  </si>
+  <si>
+    <t>6:30pm-7:48pm</t>
+  </si>
+  <si>
+    <t>1 hr, 18 min</t>
+  </si>
+  <si>
+    <t>login page</t>
+  </si>
+  <si>
+    <t>4:30pm-4:50pm, 5:07pm-5:33pm, 6:22pm-7:00pm, 10:05pm-10:18pm</t>
+  </si>
+  <si>
+    <t>20,26, 38, 13</t>
+  </si>
+  <si>
+    <t>10:18pm-10:34pm, 10:34pm-11:44pm</t>
+  </si>
+  <si>
+    <t>15, 69</t>
+  </si>
+  <si>
+    <t>1 hr, 24 min</t>
+  </si>
+  <si>
+    <t>9:35pm-9:58pm</t>
+  </si>
+  <si>
+    <t>23 minutes</t>
+  </si>
+  <si>
+    <t>login - send information to database</t>
+  </si>
+  <si>
+    <t>10:06pm-11:04pm</t>
+  </si>
+  <si>
+    <t>57 minutes</t>
+  </si>
+  <si>
+    <t>login - password</t>
+  </si>
+  <si>
+    <t>11:10pm-11:16pm, 11:26pm-12:00am</t>
+  </si>
+  <si>
+    <t>6,32</t>
+  </si>
+  <si>
+    <t>38 minutes</t>
+  </si>
+  <si>
+    <t>fixing database communication issue with PHP</t>
+  </si>
+  <si>
+    <t>12:16pm-12:25pm, 12:47pm-1:00pm, 4:09pm-4:16pm, 9:43pm-10:06pm, 11:06pm-11:25pm</t>
+  </si>
+  <si>
+    <t>9,13,6,22,18</t>
+  </si>
+  <si>
+    <t>login user to entire app</t>
+  </si>
+  <si>
+    <t>11:25pm-11:50pm</t>
+  </si>
+  <si>
+    <t>25 minutes</t>
+  </si>
+  <si>
+    <t>9:47am-11:07am, 11:38am-12:14pm, 12:15pm-12:17pm</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>11:44am-12:20pm, 12:47pm-12:52pm, 4:35pm-5:17pm</t>
+  </si>
+  <si>
+    <t>36, 5,42</t>
+  </si>
+  <si>
+    <t>1 hr, 23 min</t>
+  </si>
+  <si>
+    <t>settings page and attendance login</t>
+  </si>
+  <si>
+    <t>5:18pm-6:05pm, 6:08pm-6:25pm</t>
+  </si>
+  <si>
+    <t>47, 16</t>
+  </si>
+  <si>
+    <t>1 hr, 2 min</t>
+  </si>
+  <si>
+    <t>3:05pm-3:47pm</t>
+  </si>
+  <si>
+    <t>42 minutes</t>
+  </si>
+  <si>
+    <t>eboard vs member view</t>
+  </si>
+  <si>
+    <t>4:04pm-5:18pm, 5:19pm-5:22pm</t>
+  </si>
+  <si>
+    <t>73, 3</t>
+  </si>
+  <si>
+    <t>1 hr, 16 min</t>
+  </si>
+  <si>
+    <t>cleaning up code</t>
+  </si>
+  <si>
+    <t>5:23pm-5:58pm</t>
+  </si>
+  <si>
+    <t>schedule page - today's events</t>
+  </si>
+  <si>
+    <t>5:21pm-5:56pm</t>
+  </si>
+  <si>
+    <t>attendance - take attendance</t>
+  </si>
+  <si>
+    <t>5:56pm-7:44pm</t>
+  </si>
+  <si>
+    <t>1 hr, 48 min</t>
+  </si>
+  <si>
+    <t>schedule - upcoming events</t>
+  </si>
+  <si>
+    <t>4:56pm-5:01pm</t>
+  </si>
+  <si>
+    <t>Prepping final deliverables</t>
+  </si>
+  <si>
+    <t>5:42pm-5:57pm, 8:49pm-9:12pm, 10:15pm-10:49pm</t>
+  </si>
+  <si>
+    <t>15, 22, 34</t>
+  </si>
+  <si>
+    <t>1 hr, 12 min</t>
+  </si>
+  <si>
+    <t>creating final presentation</t>
+  </si>
+  <si>
+    <t>10:50pm-11:44pm</t>
+  </si>
+  <si>
+    <t>54 minutes</t>
+  </si>
+  <si>
+    <t>hosting public web server</t>
+  </si>
+  <si>
+    <t>2:57pm-5:14pm, 5:24pm-5:41pm</t>
+  </si>
+  <si>
+    <t>setting up database and fixing issues</t>
+  </si>
+  <si>
+    <t>9:10pm-10:34pm</t>
+  </si>
+  <si>
+    <t>137, 17</t>
+  </si>
+  <si>
+    <t>2 hr, 34 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have decided to use AWS EC2 to host my web application rather than AWS Amplify. My web server is running on Apache2 and the database was created using MySQL rather than DynamoDB. The client side scripting is done using PHP, and there is no Python code. (I said I would use Python and Django for backend code; that is no longer the case.) I am not using Amazon’s Rest API, nor am I using Amazon Cognito. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the upcoming week, I expect to spend a lot of time fine tuning. I’m going to continue working on my final presentation, hopefully spending no more than an hour on that. I would like to be able to submit my slides to early review by Friday. I will also likely spend another hour working on recording my final presentation. I would like to spend around an hour working on my capstone fair poster. I plan to continue preparing deliverables which will likely take another hour.  I need to work on improving the user interface and visual design of my web application. This will likely take 2-3 hours of my time. I plan to spend around 2-3 hours debugging and fixing some minor issues here and there. Additionally, I intend to spend about an hour reviewing my proposal and making sure that my project meets the specifications I laid out in the beginning of the semester. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since Intermediate Presentation 2, I have added a lot of functionality to my web app. The web app is just about to the point where it functionally does what I set out to accomplish. I spent about 23 minutes fixing the calendar display to correctly show the month starting on the right day. I spend about an hour setting up the login page to send information to the database (creating a new user). I spent about 40 minutes researching and reading up on how to do login on a web app and how to store user passwords. I had a database communication issue where one of the pages wasn’t able to send information to the database that took me an hour and 10 minutes to fix. Additionally, I spent about 5 and a half hours setting up the entire web app to remember the logged in user and customize the output to be specific to that user. This included setting up the settings page to pull in user information, let them change it, then update it in the database. It took me another hour and 16 minutes to make it so that certain features like create events and team attendance were only available to e-board users.  I then spent about half an hour cleaning up my code to make it a little more readable. I added in a current events table and upcoming events table to the schedule page so users can see upcoming events which took about 2 hours. I also started going through the end of project requirements and prepping deliverables, which I spent a little over an hour on. I began creating my final presentation, and put almost an hour's worth of work into that. Finally, I created a new web server using Amazon Web Services EC2 rather than Amazon Amplify. I spent 2 and a half hours setting that up and getting my web application to show up. Then, I fixed some database issues to get the web app working again which took about an hour and a half. </t>
+  </si>
+  <si>
+    <t>This past week, I set up a web server for my web application. I spent about an hour and 12 minutes working on this webserver and getting the php code to work. I finally got the php code to work and pull database information before I promptly broke my webserver. Now, it does not display the web app at all. Originally, it displayed the home page, and would not navigate to the other pages when you click on the buttons. I was trying to fix that issue for a little over an hour when I broke the whole thing and it just gives me a “404 not found” error now. Additionally, I decided to ignore this issue for now to actually get some things done. Namely, I spent 2 hours and 14 minutes setting up a calendar on the schedule page to use for events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the upcoming week, I expect to spend at least another hour working on fixing my web server display issues and get the webserver to be able to navigate to each page that I’ve created. Additionally, I expect to spend an hour on the inevitable unknown problems that will pop up as a result of something I do. I plan to also spend 4-5 hours working on the scheduling calendar functionality as well as the roster and attendance pages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This past week, I spent much less time on this project than I intended. I am running into issues everywhere with just not knowing what I’m doing, and not being able to progress as a result. I spent some time trying to get php working by setting up a webserver, something I should have probably done weeks ago. I also spent time setting up bootstrap css and trying to get that working with my project. Lastly, I spent some time setting up a login page front end. </t>
+  </si>
+  <si>
+    <t>In the upcoming week, I expect to spend an hour or two setting up a webserver and getting php to work so I can connect to my database. I also plan to spend an hour finishing setting up bootstrap and hopefully getting my AWS hosted web page to match my local file. Then, I need to spend at least 4 hours working on the functionality portions of this web app starting with the scheduling page. I am quite behind at this point, so I need to put in work to catch up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This past week, I spent a log of time trying to get things to work without succeeding. I fixed my AWS “Access denied” issue in 15 minutes with the help of an alum who is more familiar with AWS. With this issue fixed, the web page is displaying on the AWS hosted link. However, the css and/or vue.js is not displaying correctly so I spend about 50 minutes trying to figure out how to fix this issue. I spent an hour and 40 minutes building the home page for the web app. I also created the other pages in about 35 minutes. Part of that time was trying to get the back button to work. I spent another 47 minutes researching how to create a login page and not actually creating anything working. I also spend 2 and a half hours working on connecting the front end to the database. Part of this time was spent googling and going down various rabbit holes of things that I don’t think I actually need. I eventually got to php and attempted to connect to the database, but I cannot get the php to work properly. Lastly, I spent about half an hour updating my more detailed logbook and an hour and  a half working on my Intermediate Presentation #1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the upcoming week, I really need to get some kind of login page up. I expect to spend 2 hours on this part. Ideally, I can also solve my AWS css/vue issue in under an hour and get the hosted web page to match the local one. Additionally, I need to spend an hour or so getting the php working on my machine to get the database connected and working. Once I get the database connection working, I intend to spend at least an hour setting up the schedule page to load in events for the users to see. </t>
   </si>
 </sst>
 </file>
@@ -621,31 +957,31 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -661,9 +997,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -677,9 +1010,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -738,10 +1068,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -751,7 +1077,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C939A91-2C7C-4C2B-8537-5E3FAA0835DF}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,925 +1411,1529 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="15" customWidth="1"/>
     <col min="8" max="8" width="50.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="10"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="21"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>29</v>
+      <c r="F4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="26">
+        <v>10</v>
+      </c>
+      <c r="B5" s="24">
         <v>44238</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>30</v>
+      <c r="C5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="7"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="26">
+        <v>27</v>
+      </c>
+      <c r="B6" s="24">
         <v>44241</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>34</v>
+      <c r="C6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="7"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="26">
+        <v>32</v>
+      </c>
+      <c r="B7" s="24">
         <v>44243</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>38</v>
+      <c r="C7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="7"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="26">
+        <v>33</v>
+      </c>
+      <c r="B8" s="24">
         <v>44243</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>44</v>
+      <c r="C8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="F8" s="22"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="21"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="32">
+        <v>44243</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="32">
+        <v>44243</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.86041666666666661</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="32">
+        <v>44243</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="34">
-        <v>44243</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="35">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="34">
-        <v>44243</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="35">
-        <v>0.86041666666666661</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="B15" s="34">
+        <v>44248</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="34">
-        <v>44243</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="35">
-        <v>0.51527777777777783</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B16" s="39">
+        <v>44248</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="D16" s="41">
+        <v>1.6208333333333333</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B17" s="39">
+        <v>44249</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="D17" s="41">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="36">
-        <v>44248</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="39">
+        <v>44250</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D18" s="41">
+        <v>4.9421296296296297E-2</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="37">
+        <v>44250</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="D19" s="38">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="41">
-        <v>44248</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="43">
-        <v>1.6208333333333333</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="41">
-        <v>44249</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="43">
-        <v>0.61388888888888882</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="41">
-        <v>44250</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="43">
-        <v>4.9421296296296297E-2</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="39">
-        <v>44250</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="40">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="22"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" s="31" customFormat="1" ht="265.8" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="F21" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>128</v>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="250.2" x14ac:dyDescent="0.35">
+      <c r="A21" s="45"/>
+      <c r="F21" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="41">
+      <c r="A22" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="39">
         <v>44253</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="46">
+      <c r="C22" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="44">
         <v>2.2965277777777779</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>77</v>
+      <c r="E22" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="34">
+        <v>72</v>
+      </c>
+      <c r="B23" s="32">
         <v>44255</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>80</v>
+      <c r="C23" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="48">
+        <v>73</v>
+      </c>
+      <c r="B24" s="46">
         <v>44257</v>
       </c>
-      <c r="C24" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="35">
+      <c r="C24" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="33">
         <v>0.65833333333333333</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>71</v>
+      <c r="E24" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="48">
+        <v>75</v>
+      </c>
+      <c r="B25" s="46">
         <v>44256</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>86</v>
+      <c r="C25" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:9" s="31" customFormat="1" ht="250.2" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="F27" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>128</v>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="250.2" x14ac:dyDescent="0.35">
+      <c r="A27" s="45"/>
+      <c r="F27" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>88</v>
+      <c r="A28" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>61</v>
+        <v>81</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="49">
+        <v>82</v>
+      </c>
+      <c r="B29" s="47">
         <v>44263</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="46">
+      <c r="C29" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="44">
         <v>1.6187500000000001</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>93</v>
+      <c r="E29" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="49">
+        <v>85</v>
+      </c>
+      <c r="B30" s="47">
         <v>44264</v>
       </c>
-      <c r="C30" s="45" t="s">
-        <v>95</v>
+      <c r="C30" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="49">
+        <v>89</v>
+      </c>
+      <c r="B31" s="47">
         <v>44264</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>99</v>
+      <c r="C31" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="48">
+        <v>92</v>
+      </c>
+      <c r="B32" s="46">
         <v>44264</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>102</v>
+      <c r="C32" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="D32">
         <v>29</v>
       </c>
-      <c r="E32" s="31" t="s">
-        <v>103</v>
+      <c r="E32" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="10"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="1:9" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="47"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="375" x14ac:dyDescent="0.35">
+      <c r="A34" s="45"/>
+      <c r="F34" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="49">
+        <v>89</v>
+      </c>
+      <c r="B35" s="47">
         <v>44265</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>104</v>
+      <c r="C35" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="D35">
         <v>15</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>71</v>
-      </c>
+      <c r="E35" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="26"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="49">
+        <v>92</v>
+      </c>
+      <c r="B36" s="47">
         <v>44265</v>
       </c>
-      <c r="C36" s="45" t="s">
-        <v>105</v>
+      <c r="C36" s="43" t="s">
+        <v>96</v>
       </c>
       <c r="D36">
         <v>29</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>103</v>
-      </c>
+      <c r="E36" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="26"/>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="49">
+        <v>85</v>
+      </c>
+      <c r="B37" s="47">
         <v>44267</v>
       </c>
-      <c r="C37" s="45" t="s">
-        <v>106</v>
+      <c r="C37" s="43" t="s">
+        <v>97</v>
       </c>
       <c r="D37">
         <v>11</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>107</v>
+      <c r="E37" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="49">
+        <v>99</v>
+      </c>
+      <c r="B38" s="47">
         <v>44268</v>
       </c>
-      <c r="C38" s="45" t="s">
-        <v>109</v>
+      <c r="C38" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D38">
         <v>49</v>
       </c>
-      <c r="E38" s="31" t="s">
-        <v>110</v>
+      <c r="E38" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="49">
+        <v>102</v>
+      </c>
+      <c r="B39" s="47">
         <v>44268</v>
       </c>
-      <c r="C39" s="45" t="s">
-        <v>112</v>
+      <c r="C39" s="43" t="s">
+        <v>103</v>
       </c>
       <c r="D39">
         <v>24</v>
       </c>
-      <c r="E39" s="31" t="s">
-        <v>113</v>
+      <c r="E39" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="49">
+        <v>108</v>
+      </c>
+      <c r="B40" s="47">
         <v>44268</v>
       </c>
-      <c r="C40" s="45" t="s">
-        <v>114</v>
+      <c r="C40" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="34">
+        <v>109</v>
+      </c>
+      <c r="B41" s="32">
         <v>44269</v>
       </c>
-      <c r="C41" s="45" t="s">
-        <v>119</v>
+      <c r="C41" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="D41">
         <v>23</v>
       </c>
-      <c r="E41" s="31" t="s">
-        <v>120</v>
+      <c r="E41" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="54" t="s">
+    <row r="42" spans="1:9" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="51">
+        <v>44269</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:9" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="51">
+        <v>44269</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="29">
+        <v>35</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:9" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="55">
+      <c r="B44" s="48">
         <v>44269</v>
       </c>
-      <c r="C42" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="31"/>
-    </row>
-    <row r="43" spans="1:9" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="55">
-        <v>44269</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="31">
-        <v>35</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="1:9" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="56"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="38"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="22"/>
+      <c r="C44" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="13">
+        <v>45</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="10"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="21"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" s="29" customFormat="1" ht="156.6" x14ac:dyDescent="0.35">
+      <c r="A46" s="45"/>
+      <c r="F46" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="B47" s="46">
+        <v>44278</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="22"/>
-    </row>
-    <row r="49" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="22"/>
-    </row>
-    <row r="53" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="46">
+        <v>44278</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="46">
+        <v>44278</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49">
         <v>16</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="21"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E49" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" s="29" customFormat="1" ht="234.6" x14ac:dyDescent="0.35">
+      <c r="A51" s="45"/>
+      <c r="F51" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="46">
+        <v>44279</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="46">
+        <v>44283</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="B54" s="46">
+        <v>44285</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" t="s">
+        <v>145</v>
+      </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="F55" s="20"/>
+    <row r="55" spans="1:9" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="51">
+        <v>44285</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="21"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" s="14" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="22"/>
-    </row>
-    <row r="59" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="21"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="51">
+        <v>44285</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="46">
+        <v>44286</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="46">
+        <v>44287</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="B60" s="46">
+        <v>44287</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="B61" s="46">
+        <v>44287</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61">
+        <v>54</v>
+      </c>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="46">
+        <v>44288</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62">
+        <v>96</v>
+      </c>
+      <c r="E62" t="s">
+        <v>170</v>
+      </c>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="46">
+        <v>44289</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" t="s">
+        <v>174</v>
+      </c>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="46">
+        <v>44289</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64">
+        <v>78</v>
+      </c>
+      <c r="E64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="46">
+        <v>44290</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" t="s">
+        <v>170</v>
+      </c>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="46">
+        <v>44290</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" t="s">
+        <v>183</v>
+      </c>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="46">
+        <v>44291</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>185</v>
+      </c>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="46">
+        <v>44291</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68">
+        <v>57</v>
+      </c>
+      <c r="E68" t="s">
+        <v>188</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="46">
+        <v>44291</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" t="s">
+        <v>192</v>
+      </c>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="20"/>
+    </row>
+    <row r="71" spans="1:9" s="29" customFormat="1" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A71" s="45"/>
+      <c r="F71" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" s="46">
+        <v>44293</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" s="26"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="46">
+        <v>44293</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>198</v>
+      </c>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="46">
+        <v>44294</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74">
+        <v>120</v>
+      </c>
+      <c r="E74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" s="46">
+        <v>44295</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" t="s">
+        <v>203</v>
+      </c>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B76" s="46">
+        <v>44295</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" t="s">
+        <v>207</v>
+      </c>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="46">
+        <v>44296</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77">
+        <v>42</v>
+      </c>
+      <c r="E77" t="s">
+        <v>209</v>
+      </c>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="46">
+        <v>44296</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" t="s">
+        <v>213</v>
+      </c>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="46">
+        <v>44296</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>141</v>
+      </c>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B80" s="46">
+        <v>44297</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80">
+        <v>35</v>
+      </c>
+      <c r="E80" t="s">
+        <v>141</v>
+      </c>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="46">
+        <v>44297</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81">
+        <v>107</v>
+      </c>
+      <c r="E81" t="s">
+        <v>220</v>
+      </c>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" s="46">
+        <v>44298</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>140</v>
+      </c>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" s="46">
+        <v>44298</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" t="s">
+        <v>226</v>
+      </c>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="46">
+        <v>44298</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84">
+        <v>54</v>
+      </c>
+      <c r="E84" t="s">
+        <v>229</v>
+      </c>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="46">
+        <v>44299</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" t="s">
+        <v>235</v>
+      </c>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" s="46">
+        <v>44299</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86">
+        <v>84</v>
+      </c>
+      <c r="E86" t="s">
+        <v>183</v>
+      </c>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
